--- a/biology/Mycologie/Rubroboletus_rubrosanguineus/Rubroboletus_rubrosanguineus.xlsx
+++ b/biology/Mycologie/Rubroboletus_rubrosanguineus/Rubroboletus_rubrosanguineus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet rouge sang
 Rubroboletus rubrosanguineus, le Bolet rouge sang, anciennement Boletus rubrosanguineus, est une espèce toxique de champignons (Fungi) basidiomycètes du genre Rubroboletus dans la famille des Boletaceae. Il est caractérisé par son chapeau rougeâtre et son habitat montagnard sous épicéas.
@@ -512,21 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rubroboletus rubrosanguineus (Cheype) Kuan Zhao &amp; Zhu L.Yang[1]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus rubrosanguineus Cheype[1].
-Synonymes
-Rubroboletus rubrosanguineus a pour synonymes[1] :
-Boletus rubrosanguineus (Cheype) Kuan Zhao &amp; Zhu L.Yang
-Boletus rubrosanguineus Cheype
-Suillellus rubrosanguineus (Cheype) Blanco-Dios
-Phylogénie
-Ce bolet a été décrit pour la première fois dans l'ancienne Tchécoslovaquie comme une sous-espèce de Boletus splendidus (aujourd'hui Rubroboletus legaliae), puis promu au statut d'espèce (sous le nom de Boletus rubrosanguineus) par Jean-Louis Cheype en 1983[2]. Il a été transféré au nouveau genre Rubroboletus en 2014 avec plusieurs espèces proches de bolets rougeâtres et bleuissants. L'analyse moléculaire de huit des espèces membres a révélé qu'elle était la plus étroitement liée à Rubroboletus sinicus, une espèce Chinoise, et formait un clade plus grand avec Rubroboletus satanas et Rubroboletus pulchrotinctus[3].
-Étymologie
-Son épithète vient des mots latins ruber « rouge » et sanguineus « sanglant »[4].
-Noms vulgaires et vernaculaires
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bolet rouge sang[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rubroboletus rubrosanguineus (Cheype) Kuan Zhao &amp; Zhu L.Yang. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus rubrosanguineus Cheype.
 </t>
         </is>
       </c>
@@ -552,45 +555,199 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rubroboletus rubrosanguineus a pour synonymes :
+Boletus rubrosanguineus (Cheype) Kuan Zhao &amp; Zhu L.Yang
+Boletus rubrosanguineus Cheype
+Suillellus rubrosanguineus (Cheype) Blanco-Dios</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rubroboletus_rubrosanguineus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_rubrosanguineus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce bolet a été décrit pour la première fois dans l'ancienne Tchécoslovaquie comme une sous-espèce de Boletus splendidus (aujourd'hui Rubroboletus legaliae), puis promu au statut d'espèce (sous le nom de Boletus rubrosanguineus) par Jean-Louis Cheype en 1983. Il a été transféré au nouveau genre Rubroboletus en 2014 avec plusieurs espèces proches de bolets rougeâtres et bleuissants. L'analyse moléculaire de huit des espèces membres a révélé qu'elle était la plus étroitement liée à Rubroboletus sinicus, une espèce Chinoise, et formait un clade plus grand avec Rubroboletus satanas et Rubroboletus pulchrotinctus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rubroboletus_rubrosanguineus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_rubrosanguineus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète vient des mots latins ruber « rouge » et sanguineus « sanglant ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rubroboletus_rubrosanguineus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_rubrosanguineus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bolet rouge sang.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rubroboletus_rubrosanguineus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_rubrosanguineus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Rubroboletus rubrosanguineus sont les suivantes :
 Son chapeau mesure jusqu'à 15 cm, d'une texture tomenteuse et d'une couleur gris café au lait ou gris ou gris ocracé sur fond rouge sang visible à la détersion, enfin entièrement rouge sang ou brun rouge, typiquement rouge pâle. Le chapeau est généralement non bleuissant au toucher.
 Son hyménophore présente des pores fins, de couleur jaune, puis rapidement rouge sang, bleuissants.
 Le stipe mesure jusqu'à à 10 x 5 cm. Il est trapu, de couleur rouge, orné d'un réseau rouge sang dense, brunissant à noirâtre en bas avec l'âge.
-Sa chair est jaune pâle, rouge betterave en bas, bleuissant intensément à la coupe. Sa saveur est douce[6].
+Sa chair est jaune pâle, rouge betterave en bas, bleuissant intensément à la coupe. Sa saveur est douce.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Rubroboletus_rubrosanguineus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rubroboletus_rubrosanguineus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un champignon ectomycorhizien, montagnard et calcicole, poussant surtout sous épicéas (Picea).
 </t>
